--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1298040.257834637</v>
+        <v>-1299938.48993876</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>320.7972739084107</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>397.9224561671775</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>115.1181267236283</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3.813385167260421</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>199.896965763192</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>23.25286785788541</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>149.6324957871244</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>73.33772705477213</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>125.8721928563316</v>
       </c>
       <c r="U7" t="n">
-        <v>36.86740133315033</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>244.5586052836203</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>38.04673128670574</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>118.9315118908886</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>122.1529424026873</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>140.0921306777565</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>152.3420011018067</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>71.18858666156065</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>128.6976725291944</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>82.35845141792571</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>37.99851953488327</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>7.457166656196064</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>232.9016561088027</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>48.82364294700985</v>
+        <v>16.02845249187367</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>124.6501923679393</v>
+        <v>122.2151751544601</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898666</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463054</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857112</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463051</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1130.084661047914</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C2" t="n">
-        <v>806.0470106353782</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1893.689751284806</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1520.223993023726</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.084661047914</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>430.1995832917215</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>526.2128571729072</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>526.2128571729072</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1387.069036214947</v>
+        <v>1293.977907210731</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>925.0153902703189</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>925.0153902703189</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>539.2271376720746</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>532.2816369228711</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2150.674126451839</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2150.674126451839</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>1777.208368190759</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y5" t="n">
-        <v>1387.069036214947</v>
+        <v>1680.577747274852</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="U7" t="n">
-        <v>463.5809975486215</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="V7" t="n">
-        <v>463.5809975486215</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="W7" t="n">
-        <v>463.5809975486215</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1017.998017761265</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C8" t="n">
-        <v>649.0355008208533</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>649.0355008208533</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,10 +4802,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2385.054692817035</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.202948062278</v>
+        <v>2032.286037546921</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.737189801198</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y8" t="n">
-        <v>1404.597857825387</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,46 +4884,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>393.6767897220517</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>393.6767897220517</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>575.3252545522914</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>575.3252545522914</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>575.3252545522914</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>575.3252545522914</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,7 +5075,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>985.400123145958</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>816.4639402180511</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>666.3473008057153</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>518.4342072233222</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241943</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688057</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799349</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471178</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119726</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035279</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247844</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>810.2549326310402</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>555.5704444251534</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W13" t="n">
-        <v>266.1532743881928</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X13" t="n">
-        <v>266.1532743881928</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y13" t="n">
-        <v>266.1532743881928</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766199</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656581</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320614</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>337.3000764349709</v>
+        <v>488.8659712700625</v>
       </c>
       <c r="C16" t="n">
-        <v>337.3000764349709</v>
+        <v>488.8659712700625</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>338.7493318577267</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>338.7493318577267</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765184</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765184</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W16" t="n">
-        <v>786.0822064765184</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X16" t="n">
-        <v>558.0926555785011</v>
+        <v>670.5144361003022</v>
       </c>
       <c r="Y16" t="n">
-        <v>337.3000764349709</v>
+        <v>670.5144361003022</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5592,19 +5592,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>507.0827848727882</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="C19" t="n">
-        <v>507.0827848727882</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="D19" t="n">
-        <v>507.0827848727882</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>180.4074464278876</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1460.533927593374</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1460.533927593374</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1460.533927593374</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1171.405288806932</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V19" t="n">
-        <v>916.7208006010452</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W19" t="n">
-        <v>916.7208006010452</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X19" t="n">
-        <v>688.7312497030279</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y19" t="n">
-        <v>688.7312497030279</v>
+        <v>330.8254548799443</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211724</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011341</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.104817265285</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.1954542207687</v>
+        <v>549.6692635248403</v>
       </c>
       <c r="C22" t="n">
-        <v>560.1954542207687</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352016</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W22" t="n">
-        <v>1008.977584262316</v>
+        <v>731.31772835508</v>
       </c>
       <c r="X22" t="n">
-        <v>780.9880333642989</v>
+        <v>731.31772835508</v>
       </c>
       <c r="Y22" t="n">
-        <v>560.1954542207687</v>
+        <v>731.31772835508</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822468</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>474.7746905116418</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>721.5398184181058</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1028.859951698067</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>564.4843764226425</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C25" t="n">
-        <v>395.5481934947356</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D25" t="n">
-        <v>395.5481934947356</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>1449.599459500317</v>
+        <v>1258.940499295011</v>
       </c>
       <c r="V25" t="n">
-        <v>1194.91497129443</v>
+        <v>1004.256011089124</v>
       </c>
       <c r="W25" t="n">
-        <v>1194.91497129443</v>
+        <v>1004.256011089124</v>
       </c>
       <c r="X25" t="n">
-        <v>966.9254203964124</v>
+        <v>1004.256011089124</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.1328412528823</v>
+        <v>1004.256011089124</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,37 +6215,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>553.0935746802517</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>392.0201325405893</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W28" t="n">
-        <v>920.3704617344999</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X28" t="n">
-        <v>794.4611765143592</v>
+        <v>1375.466598684711</v>
       </c>
       <c r="Y28" t="n">
-        <v>573.668597370829</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>251.1748338338031</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>400.2445180358629</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>1014.141587792752</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103121</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982965</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649691</v>
@@ -6658,13 +6658,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>242.5343297994526</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>391.6040140015125</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>638.3691419079765</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103121</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982965</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822457</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7151,49 +7151,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1894.594339433114</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7388,49 +7388,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>154.3878371814099</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>303.4575213834697</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>550.2226492899338</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7612,7 +7612,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7655,40 +7655,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222968</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506734</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083214</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504521</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,40 +7801,40 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7843,13 +7843,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>145.2351313103795</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>306.1147370139969</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,22 +9240,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M18" t="n">
-        <v>19.14409596997052</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,22 +9486,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>73.53204524669945</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.8856946302409</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>18.73797368291343</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>113.6026921294542</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714807</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>104.874910276575</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>52.49733361305226</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>148.1350559470645</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>15.83804904622873</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.86171385361752</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>52.12869437499959</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.0290063840923</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>5.328917345174773</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>133.8953512967706</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238289</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>77.42688635665171</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>16.7233754937368</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>28.06079404634629</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>71.96583286890952</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>159.7896544424318</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>53.62134222778832</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>237.4137094515675</v>
+        <v>270.2088999067037</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>101.0594630210978</v>
+        <v>103.494480234577</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1258421.9291261</v>
+        <v>1258421.929126101</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1258421.929126101</v>
+        <v>1258421.9291261</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1258421.929126101</v>
+        <v>1258421.9291261</v>
       </c>
     </row>
     <row r="9">
@@ -26317,22 +26317,22 @@
         <v>123156.2654796424</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
         <v>117308.7179213126</v>
       </c>
       <c r="F2" t="n">
-        <v>117308.7179213127</v>
+        <v>117308.7179213126</v>
       </c>
       <c r="G2" t="n">
+        <v>117308.7179213126</v>
+      </c>
+      <c r="H2" t="n">
         <v>117308.7179213125</v>
       </c>
-      <c r="H2" t="n">
-        <v>117308.7179213126</v>
-      </c>
       <c r="I2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213125</v>
       </c>
       <c r="J2" t="n">
         <v>117308.7179213126</v>
@@ -26341,7 +26341,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371251</v>
+        <v>54505.51210371248</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371248</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143694.8020290738</v>
+        <v>143694.8020290737</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007455</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="I4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007461</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732788</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26479,25 +26479,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-694475.1181034468</v>
+        <v>-694493.6118413809</v>
       </c>
       <c r="C6" t="n">
-        <v>-107619.8612996879</v>
+        <v>-107619.8612996878</v>
       </c>
       <c r="D6" t="n">
         <v>-107619.8612996878</v>
       </c>
       <c r="E6" t="n">
-        <v>-507755.3761603075</v>
+        <v>-507852.8352862798</v>
       </c>
       <c r="F6" t="n">
-        <v>17404.66031658855</v>
+        <v>17307.20119061628</v>
       </c>
       <c r="G6" t="n">
-        <v>17404.66031658842</v>
+        <v>17307.20119061635</v>
       </c>
       <c r="H6" t="n">
-        <v>17404.66031658844</v>
+        <v>17307.20119061628</v>
       </c>
       <c r="I6" t="n">
-        <v>17404.66031658847</v>
+        <v>17307.20119061624</v>
       </c>
       <c r="J6" t="n">
-        <v>-159018.5588760045</v>
+        <v>-159116.0180019767</v>
       </c>
       <c r="K6" t="n">
-        <v>-59399.87134142332</v>
+        <v>-59399.87134142328</v>
       </c>
       <c r="L6" t="n">
-        <v>-4894.3592377108</v>
+        <v>-4894.359237710683</v>
       </c>
       <c r="M6" t="n">
-        <v>-139695.3744715479</v>
+        <v>-139695.374471548</v>
       </c>
       <c r="N6" t="n">
-        <v>-4894.3592377108</v>
+        <v>-4894.359237710814</v>
       </c>
       <c r="O6" t="n">
         <v>-4894.359237710814</v>
       </c>
       <c r="P6" t="n">
-        <v>-59399.87134142335</v>
+        <v>-59399.8713414233</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26814,7 +26814,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>44.47561786259683</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27461,7 +27461,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>144.8020878509519</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>12.24857318682695</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>264.1516742336706</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>254.4145314153628</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27825,10 +27825,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>99.16291260175264</v>
       </c>
       <c r="U7" t="n">
-        <v>249.4144729088274</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>137.3717647886415</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>289.7055271834292</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>27.50245075568053</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>129.9847009211407</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.413980044162599e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32482,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32503,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32631,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32643,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32655,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>455.6595083608457</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655641</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>588.4784392551049</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M18" t="n">
-        <v>329.5684730204368</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36130,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879393</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>355.8957474878077</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4611332181801</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>267.9956786389377</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>155.5128710843609</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>146.7850892314816</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187828</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>385.6919070110652</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>355.2284708785892</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>57.74822800113539</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>482.1033309642237</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414415</v>
